--- a/server/test.xlsx
+++ b/server/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangga/Documents/Non kuliah/SE Fellowship/Sandboxes/js/bank-monitoring-web-app/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C1B4C8-AA5D-A147-AB6F-54DFB69B4B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A0B5D-58E7-3647-9536-9E857E341F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14500" xr2:uid="{EE7AD46F-77F5-0243-881D-20C019B6AD12}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{EE7AD46F-77F5-0243-881D-20C019B6AD12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A377BD8-5D66-D240-BC70-94207B5AF65E}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="255" zoomScaleNormal="255" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
